--- a/predictions/Прогнозы_ETS_HM12.xlsx
+++ b/predictions/Прогнозы_ETS_HM12.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16692860.46842736</v>
+        <v>19104477.72063342</v>
       </c>
       <c r="C2" t="n">
-        <v>20612985.31029313</v>
+        <v>20619471.75816724</v>
       </c>
       <c r="D2" t="n">
-        <v>22100157.25709515</v>
+        <v>18838142.79633728</v>
       </c>
       <c r="E2" t="n">
-        <v>20291000.74774561</v>
+        <v>17102037.78231107</v>
       </c>
       <c r="F2" t="n">
-        <v>18527092.76527451</v>
+        <v>18288794.89920627</v>
       </c>
       <c r="G2" t="n">
-        <v>19686051.94604745</v>
+        <v>19128949.26509039</v>
       </c>
       <c r="H2" t="n">
-        <v>20276265.75602883</v>
+        <v>20367266.15313807</v>
       </c>
       <c r="I2" t="n">
-        <v>21708808.50657978</v>
+        <v>19908790.47894892</v>
       </c>
       <c r="J2" t="n">
-        <v>21222521.95866423</v>
+        <v>19645482.17211486</v>
       </c>
       <c r="K2" t="n">
-        <v>20931395.80450654</v>
+        <v>21271401.42719185</v>
       </c>
       <c r="L2" t="n">
-        <v>22529525.53663942</v>
+        <v>22124491.738375</v>
       </c>
       <c r="M2" t="n">
-        <v>23354763.68406711</v>
+        <v>18059200.51813035</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14888552.15641822</v>
+        <v>13489801.23331584</v>
       </c>
       <c r="C3" t="n">
-        <v>15710442.22107721</v>
+        <v>16511334.326041</v>
       </c>
       <c r="D3" t="n">
-        <v>19467821.49935489</v>
+        <v>13864194.44630616</v>
       </c>
       <c r="E3" t="n">
-        <v>17556442.04144265</v>
+        <v>14977597.10993641</v>
       </c>
       <c r="F3" t="n">
-        <v>19405669.97983657</v>
+        <v>13747997.44121725</v>
       </c>
       <c r="G3" t="n">
-        <v>18911871.36139445</v>
+        <v>13088956.68778216</v>
       </c>
       <c r="H3" t="n">
-        <v>20131305.56938929</v>
+        <v>14228174.7521845</v>
       </c>
       <c r="I3" t="n">
-        <v>20863900.39857224</v>
+        <v>14489964.37183647</v>
       </c>
       <c r="J3" t="n">
-        <v>21861479.62275664</v>
+        <v>14707823.68597623</v>
       </c>
       <c r="K3" t="n">
-        <v>22815189.02412219</v>
+        <v>14835419.65761234</v>
       </c>
       <c r="L3" t="n">
-        <v>23678562.26396322</v>
+        <v>15932013.70818044</v>
       </c>
       <c r="M3" t="n">
-        <v>25511055.96221155</v>
+        <v>14508856.34846263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26287718.79498883</v>
+        <v>61140244.85658526</v>
       </c>
       <c r="C4" t="n">
-        <v>29154381.17490312</v>
+        <v>69161831.8745178</v>
       </c>
       <c r="D4" t="n">
-        <v>31537889.40936411</v>
+        <v>78086573.04166456</v>
       </c>
       <c r="E4" t="n">
-        <v>34848530.91715931</v>
+        <v>86543569.38545676</v>
       </c>
       <c r="F4" t="n">
-        <v>37518125.83453829</v>
+        <v>95879474.85144494</v>
       </c>
       <c r="G4" t="n">
-        <v>40820728.69807027</v>
+        <v>104741763.685697</v>
       </c>
       <c r="H4" t="n">
-        <v>44741178.07907829</v>
+        <v>115319491.5373688</v>
       </c>
       <c r="I4" t="n">
-        <v>47512456.0151281</v>
+        <v>124983317.5565878</v>
       </c>
       <c r="J4" t="n">
-        <v>51048860.83609739</v>
+        <v>134222298.5809661</v>
       </c>
       <c r="K4" t="n">
-        <v>54682870.62031364</v>
+        <v>143211959.9673119</v>
       </c>
       <c r="L4" t="n">
-        <v>57437223.43692889</v>
+        <v>152498065.6000479</v>
       </c>
       <c r="M4" t="n">
-        <v>60987387.49747863</v>
+        <v>160946097.5285362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20785562.34576642</v>
+        <v>31068580.90295818</v>
       </c>
       <c r="C5" t="n">
-        <v>23336010.31562511</v>
+        <v>30253207.40969602</v>
       </c>
       <c r="D5" t="n">
-        <v>25819637.32259718</v>
+        <v>32953764.47316746</v>
       </c>
       <c r="E5" t="n">
-        <v>28257621.74957618</v>
+        <v>34829193.84159291</v>
       </c>
       <c r="F5" t="n">
-        <v>30837153.39475081</v>
+        <v>36152400.6689309</v>
       </c>
       <c r="G5" t="n">
-        <v>33625772.19593067</v>
+        <v>35016852.19289576</v>
       </c>
       <c r="H5" t="n">
-        <v>36540314.26284672</v>
+        <v>36888171.21932299</v>
       </c>
       <c r="I5" t="n">
-        <v>39958336.45331879</v>
+        <v>38651817.30548367</v>
       </c>
       <c r="J5" t="n">
-        <v>43714799.00938535</v>
+        <v>39352783.50028636</v>
       </c>
       <c r="K5" t="n">
-        <v>45078721.07042463</v>
+        <v>41893988.71828642</v>
       </c>
       <c r="L5" t="n">
-        <v>47430711.66650832</v>
+        <v>53993451.92904875</v>
       </c>
       <c r="M5" t="n">
-        <v>51680991.09900229</v>
+        <v>34478438.1201049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8244706.890963599</v>
+        <v>2795233.448380024</v>
       </c>
       <c r="C6" t="n">
-        <v>13576529.34289018</v>
+        <v>3336129.633381277</v>
       </c>
       <c r="D6" t="n">
-        <v>11048803.94230941</v>
+        <v>1702136.857786836</v>
       </c>
       <c r="E6" t="n">
-        <v>11661473.5268025</v>
+        <v>6112917.380494891</v>
       </c>
       <c r="F6" t="n">
-        <v>13543104.2276223</v>
+        <v>885575.6058866086</v>
       </c>
       <c r="G6" t="n">
-        <v>13302495.69416678</v>
+        <v>2388373.452538658</v>
       </c>
       <c r="H6" t="n">
-        <v>12889860.56030628</v>
+        <v>1800930.225437897</v>
       </c>
       <c r="I6" t="n">
-        <v>12975049.53409307</v>
+        <v>3270699.317922434</v>
       </c>
       <c r="J6" t="n">
-        <v>13361205.68173918</v>
+        <v>1042980.665758541</v>
       </c>
       <c r="K6" t="n">
-        <v>14488954.23190331</v>
+        <v>3789955.694572651</v>
       </c>
       <c r="L6" t="n">
-        <v>14838138.40476183</v>
+        <v>1794940.600168853</v>
       </c>
       <c r="M6" t="n">
-        <v>22187402.30559435</v>
+        <v>1535584.478275159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1305991.035854287</v>
+        <v>15446845.77791962</v>
       </c>
       <c r="C7" t="n">
-        <v>2685659.294695418</v>
+        <v>17526364.91945606</v>
       </c>
       <c r="D7" t="n">
-        <v>2826531.575122177</v>
+        <v>16768469.92548414</v>
       </c>
       <c r="E7" t="n">
-        <v>3309451.393669621</v>
+        <v>18173253.67554362</v>
       </c>
       <c r="F7" t="n">
-        <v>2333689.432490938</v>
+        <v>17131784.0001842</v>
       </c>
       <c r="G7" t="n">
-        <v>3958352.369893692</v>
+        <v>17800182.58764812</v>
       </c>
       <c r="H7" t="n">
-        <v>2543033.748921405</v>
+        <v>18391178.80019999</v>
       </c>
       <c r="I7" t="n">
-        <v>2835879.778310892</v>
+        <v>18609534.0235162</v>
       </c>
       <c r="J7" t="n">
-        <v>3408597.948834706</v>
+        <v>19901530.91039743</v>
       </c>
       <c r="K7" t="n">
-        <v>2947181.983454497</v>
+        <v>19112361.24094062</v>
       </c>
       <c r="L7" t="n">
-        <v>3316709.472134226</v>
+        <v>20298252.2241516</v>
       </c>
       <c r="M7" t="n">
-        <v>5144221.091704737</v>
+        <v>20073154.32546388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1037814.984472867</v>
+        <v>20278920.11113489</v>
       </c>
       <c r="C8" t="n">
-        <v>1489217.766217038</v>
+        <v>22459162.65846335</v>
       </c>
       <c r="D8" t="n">
-        <v>1272983.532762166</v>
+        <v>22033151.96162207</v>
       </c>
       <c r="E8" t="n">
-        <v>1539467.754875405</v>
+        <v>20388390.69055256</v>
       </c>
       <c r="F8" t="n">
-        <v>1444110.500792699</v>
+        <v>20347091.46066928</v>
       </c>
       <c r="G8" t="n">
-        <v>1843270.432124913</v>
+        <v>20289626.53849201</v>
       </c>
       <c r="H8" t="n">
-        <v>2032629.475583567</v>
+        <v>17195763.16906584</v>
       </c>
       <c r="I8" t="n">
-        <v>1890964.802594443</v>
+        <v>19897685.45414924</v>
       </c>
       <c r="J8" t="n">
-        <v>1801880.731059891</v>
+        <v>19854536.24919457</v>
       </c>
       <c r="K8" t="n">
-        <v>2081381.092731007</v>
+        <v>21546778.88893101</v>
       </c>
       <c r="L8" t="n">
-        <v>2683981.860963419</v>
+        <v>27207098.26655985</v>
       </c>
       <c r="M8" t="n">
-        <v>2089596.687893124</v>
+        <v>15640123.33009367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12014010.46042312</v>
+        <v>28233043.85822525</v>
       </c>
       <c r="C9" t="n">
-        <v>15293132.88144835</v>
+        <v>31619445.9431689</v>
       </c>
       <c r="D9" t="n">
-        <v>18645994.45279814</v>
+        <v>32659187.96500942</v>
       </c>
       <c r="E9" t="n">
-        <v>21812153.33121588</v>
+        <v>31762331.80170963</v>
       </c>
       <c r="F9" t="n">
-        <v>25342660.06491729</v>
+        <v>32805740.94179182</v>
       </c>
       <c r="G9" t="n">
-        <v>27740131.71051139</v>
+        <v>31979958.01302933</v>
       </c>
       <c r="H9" t="n">
-        <v>30992311.72202349</v>
+        <v>32743685.53544684</v>
       </c>
       <c r="I9" t="n">
-        <v>33894639.45981465</v>
+        <v>31626682.3380082</v>
       </c>
       <c r="J9" t="n">
-        <v>36882832.64220966</v>
+        <v>31868087.15693935</v>
       </c>
       <c r="K9" t="n">
-        <v>40528481.76183841</v>
+        <v>32338487.76397443</v>
       </c>
       <c r="L9" t="n">
-        <v>43058082.46320526</v>
+        <v>40996016.97000192</v>
       </c>
       <c r="M9" t="n">
-        <v>46373749.58943088</v>
+        <v>31105348.73377194</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13331502.60477041</v>
+        <v>15354328.12038268</v>
       </c>
       <c r="C10" t="n">
-        <v>15965766.39716664</v>
+        <v>16488720.79329363</v>
       </c>
       <c r="D10" t="n">
-        <v>17338772.71317476</v>
+        <v>17995179.51016509</v>
       </c>
       <c r="E10" t="n">
-        <v>18625683.74386559</v>
+        <v>18979606.97252164</v>
       </c>
       <c r="F10" t="n">
-        <v>19149928.53864503</v>
+        <v>18959447.18675147</v>
       </c>
       <c r="G10" t="n">
-        <v>19259059.00818644</v>
+        <v>21962141.87269159</v>
       </c>
       <c r="H10" t="n">
-        <v>19639069.96915713</v>
+        <v>19243412.47407121</v>
       </c>
       <c r="I10" t="n">
-        <v>21162382.72837745</v>
+        <v>18845728.10343375</v>
       </c>
       <c r="J10" t="n">
-        <v>22129476.69099943</v>
+        <v>19384480.19164383</v>
       </c>
       <c r="K10" t="n">
-        <v>21875494.71227222</v>
+        <v>19441722.72585998</v>
       </c>
       <c r="L10" t="n">
-        <v>23136823.32489509</v>
+        <v>19740819.9993979</v>
       </c>
       <c r="M10" t="n">
-        <v>26572698.45417864</v>
+        <v>18339072.04128746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-364592.812560208</v>
+        <v>19938816.73010185</v>
       </c>
       <c r="C11" t="n">
-        <v>1248557.217258835</v>
+        <v>20341565.93579939</v>
       </c>
       <c r="D11" t="n">
-        <v>1160236.178901521</v>
+        <v>21294350.73516338</v>
       </c>
       <c r="E11" t="n">
-        <v>115435.0642166241</v>
+        <v>21689732.72472493</v>
       </c>
       <c r="F11" t="n">
-        <v>4762104.520101412</v>
+        <v>23768042.47190569</v>
       </c>
       <c r="G11" t="n">
-        <v>-188430.1007625267</v>
+        <v>24209184.87000028</v>
       </c>
       <c r="H11" t="n">
-        <v>1267046.916738025</v>
+        <v>24716978.61057046</v>
       </c>
       <c r="I11" t="n">
-        <v>664858.8493850189</v>
+        <v>26225439.22193928</v>
       </c>
       <c r="J11" t="n">
-        <v>1873979.618464683</v>
+        <v>27960196.38816373</v>
       </c>
       <c r="K11" t="n">
-        <v>-216253.9654443904</v>
+        <v>28653096.35410829</v>
       </c>
       <c r="L11" t="n">
-        <v>2264999.656600304</v>
+        <v>27860990.49188824</v>
       </c>
       <c r="M11" t="n">
-        <v>104510.2217002502</v>
+        <v>27762924.67253872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722982.8132258024</v>
+        <v>44189217.79820646</v>
       </c>
       <c r="C12" t="n">
-        <v>1435317.415479922</v>
+        <v>43756429.08377235</v>
       </c>
       <c r="D12" t="n">
-        <v>2048881.957655561</v>
+        <v>46868003.67466037</v>
       </c>
       <c r="E12" t="n">
-        <v>1444138.609779396</v>
+        <v>41940757.6023818</v>
       </c>
       <c r="F12" t="n">
-        <v>1192716.605768894</v>
+        <v>45411402.02984525</v>
       </c>
       <c r="G12" t="n">
-        <v>900275.9934282824</v>
+        <v>48121486.68900886</v>
       </c>
       <c r="H12" t="n">
-        <v>1313585.216843433</v>
+        <v>45963132.6270732</v>
       </c>
       <c r="I12" t="n">
-        <v>931288.7795568774</v>
+        <v>50181610.41746321</v>
       </c>
       <c r="J12" t="n">
-        <v>1176375.817637281</v>
+        <v>52791122.6799352</v>
       </c>
       <c r="K12" t="n">
-        <v>1023315.124543813</v>
+        <v>51770927.36669329</v>
       </c>
       <c r="L12" t="n">
-        <v>1273478.201129994</v>
+        <v>46037790.82810289</v>
       </c>
       <c r="M12" t="n">
-        <v>1423366.597607131</v>
+        <v>44805954.4499049</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3039116.465746414</v>
+        <v>36417551.73349564</v>
       </c>
       <c r="C13" t="n">
-        <v>3343200.65902012</v>
+        <v>35009379.77137937</v>
       </c>
       <c r="D13" t="n">
-        <v>3934630.056918075</v>
+        <v>39529709.48738556</v>
       </c>
       <c r="E13" t="n">
-        <v>4061529.965383851</v>
+        <v>33140224.82913904</v>
       </c>
       <c r="F13" t="n">
-        <v>4721004.916331326</v>
+        <v>38174830.00345146</v>
       </c>
       <c r="G13" t="n">
-        <v>4658303.980968771</v>
+        <v>40150916.72698812</v>
       </c>
       <c r="H13" t="n">
-        <v>5339775.014144363</v>
+        <v>43628204.09526363</v>
       </c>
       <c r="I13" t="n">
-        <v>5605815.300868532</v>
+        <v>43746633.31121442</v>
       </c>
       <c r="J13" t="n">
-        <v>5863864.382775404</v>
+        <v>46735428.61291198</v>
       </c>
       <c r="K13" t="n">
-        <v>6401741.955780527</v>
+        <v>40549343.8687567</v>
       </c>
       <c r="L13" t="n">
-        <v>6490833.183074374</v>
+        <v>38098681.06780613</v>
       </c>
       <c r="M13" t="n">
-        <v>6892428.476845873</v>
+        <v>35651871.72219077</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-191182.6512587451</v>
+        <v>1023099.293216887</v>
       </c>
       <c r="C14" t="n">
-        <v>1137006.91438333</v>
+        <v>1076865.326598527</v>
       </c>
       <c r="D14" t="n">
-        <v>2284737.68117436</v>
+        <v>1074791.927580934</v>
       </c>
       <c r="E14" t="n">
-        <v>1350447.591241929</v>
+        <v>1051391.350962989</v>
       </c>
       <c r="F14" t="n">
-        <v>458554.1406583374</v>
+        <v>1256447.883067247</v>
       </c>
       <c r="G14" t="n">
-        <v>472801.5771460105</v>
+        <v>1640702.295218758</v>
       </c>
       <c r="H14" t="n">
-        <v>297831.7327331742</v>
+        <v>1267459.550270373</v>
       </c>
       <c r="I14" t="n">
-        <v>372367.0399910622</v>
+        <v>1291985.204047958</v>
       </c>
       <c r="J14" t="n">
-        <v>132997.8121070508</v>
+        <v>1314841.440541186</v>
       </c>
       <c r="K14" t="n">
-        <v>932098.7782320661</v>
+        <v>1339434.309422783</v>
       </c>
       <c r="L14" t="n">
-        <v>9379.469617910567</v>
+        <v>1356462.408422599</v>
       </c>
       <c r="M14" t="n">
-        <v>250141.0678517615</v>
+        <v>1348545.559035914</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1196124.101600785</v>
+        <v>4755507.444304656</v>
       </c>
       <c r="C15" t="n">
-        <v>1132922.754826295</v>
+        <v>5952727.802817841</v>
       </c>
       <c r="D15" t="n">
-        <v>1183396.166803311</v>
+        <v>6493187.892798827</v>
       </c>
       <c r="E15" t="n">
-        <v>1292489.709557829</v>
+        <v>5172685.042584507</v>
       </c>
       <c r="F15" t="n">
-        <v>1270563.219328224</v>
+        <v>5523371.532524096</v>
       </c>
       <c r="G15" t="n">
-        <v>1433156.816381721</v>
+        <v>4709819.480242552</v>
       </c>
       <c r="H15" t="n">
-        <v>1550206.339011108</v>
+        <v>6241768.710721688</v>
       </c>
       <c r="I15" t="n">
-        <v>1463711.676063206</v>
+        <v>5854391.470552357</v>
       </c>
       <c r="J15" t="n">
-        <v>1510835.498804954</v>
+        <v>5783349.718612408</v>
       </c>
       <c r="K15" t="n">
-        <v>1582065.631531079</v>
+        <v>6558173.773494874</v>
       </c>
       <c r="L15" t="n">
-        <v>1606418.588570473</v>
+        <v>6212231.156776125</v>
       </c>
       <c r="M15" t="n">
-        <v>1928159.954567419</v>
+        <v>6147382.230448952</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1614529.605250902</v>
+        <v>7225723.651286301</v>
       </c>
       <c r="C16" t="n">
-        <v>1851606.731428282</v>
+        <v>7363051.564314311</v>
       </c>
       <c r="D16" t="n">
-        <v>1860730.874769615</v>
+        <v>9794221.57576572</v>
       </c>
       <c r="E16" t="n">
-        <v>1921861.213802357</v>
+        <v>8846128.565165751</v>
       </c>
       <c r="F16" t="n">
-        <v>2074964.806457859</v>
+        <v>8898906.606713407</v>
       </c>
       <c r="G16" t="n">
-        <v>2050906.349255976</v>
+        <v>9546084.899071552</v>
       </c>
       <c r="H16" t="n">
-        <v>2195672.882629052</v>
+        <v>7773113.320760574</v>
       </c>
       <c r="I16" t="n">
-        <v>2205912.208141617</v>
+        <v>11069411.81963234</v>
       </c>
       <c r="J16" t="n">
-        <v>2258466.141143411</v>
+        <v>10376010.63823593</v>
       </c>
       <c r="K16" t="n">
-        <v>2328944.874821099</v>
+        <v>12055445.80011307</v>
       </c>
       <c r="L16" t="n">
-        <v>2338793.657795577</v>
+        <v>11714518.32683162</v>
       </c>
       <c r="M16" t="n">
-        <v>2665189.950049912</v>
+        <v>11391847.04099364</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6211190.766373987</v>
+        <v>5803960.319098786</v>
       </c>
       <c r="C17" t="n">
-        <v>7187068.593221545</v>
+        <v>5136995.204856675</v>
       </c>
       <c r="D17" t="n">
-        <v>7561311.235313145</v>
+        <v>5573011.839563909</v>
       </c>
       <c r="E17" t="n">
-        <v>7489044.032719319</v>
+        <v>5326782.372417436</v>
       </c>
       <c r="F17" t="n">
-        <v>9039072.77010029</v>
+        <v>5689421.583161609</v>
       </c>
       <c r="G17" t="n">
-        <v>7944971.828086071</v>
+        <v>5950534.68267258</v>
       </c>
       <c r="H17" t="n">
-        <v>8092736.458377594</v>
+        <v>5980750.051730054</v>
       </c>
       <c r="I17" t="n">
-        <v>8267054.19465962</v>
+        <v>6661632.202199219</v>
       </c>
       <c r="J17" t="n">
-        <v>8411363.888676694</v>
+        <v>6803181.55682542</v>
       </c>
       <c r="K17" t="n">
-        <v>8269008.497513424</v>
+        <v>7174365.347214071</v>
       </c>
       <c r="L17" t="n">
-        <v>8323601.347816673</v>
+        <v>6635182.83383698</v>
       </c>
       <c r="M17" t="n">
-        <v>8263598.083191446</v>
+        <v>5974850.46939727</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-361345.6076076471</v>
+        <v>4239175.395067391</v>
       </c>
       <c r="C18" t="n">
-        <v>247649.5061064192</v>
+        <v>3673827.444485294</v>
       </c>
       <c r="D18" t="n">
-        <v>335054.5680650619</v>
+        <v>3793456.059665986</v>
       </c>
       <c r="E18" t="n">
-        <v>-28085.56466131292</v>
+        <v>4909298.694298601</v>
       </c>
       <c r="F18" t="n">
-        <v>-587972.9172460567</v>
+        <v>3754840.730027138</v>
       </c>
       <c r="G18" t="n">
-        <v>-446394.4576493842</v>
+        <v>3465451.408185036</v>
       </c>
       <c r="H18" t="n">
-        <v>-897797.0245173468</v>
+        <v>3824375.787985204</v>
       </c>
       <c r="I18" t="n">
-        <v>-1345138.335378959</v>
+        <v>4272103.615564523</v>
       </c>
       <c r="J18" t="n">
-        <v>-915313.782612731</v>
+        <v>3736674.2894082</v>
       </c>
       <c r="K18" t="n">
-        <v>-1361919.16755106</v>
+        <v>3648335.066021275</v>
       </c>
       <c r="L18" t="n">
-        <v>-1160004.903580543</v>
+        <v>4190025.154800672</v>
       </c>
       <c r="M18" t="n">
-        <v>1116929.373672271</v>
+        <v>3663414.314179228</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-110860.4988852868</v>
+        <v>5015539.023018056</v>
       </c>
       <c r="C19" t="n">
-        <v>-117692.7157254928</v>
+        <v>6679757.939373123</v>
       </c>
       <c r="D19" t="n">
-        <v>127043.962297307</v>
+        <v>4605445.378138534</v>
       </c>
       <c r="E19" t="n">
-        <v>-117269.7890736289</v>
+        <v>4045113.920619166</v>
       </c>
       <c r="F19" t="n">
-        <v>-41276.78142001105</v>
+        <v>3980907.591763923</v>
       </c>
       <c r="G19" t="n">
-        <v>-174318.8290059522</v>
+        <v>6030760.249293396</v>
       </c>
       <c r="H19" t="n">
-        <v>-120992.9022985837</v>
+        <v>7159369.63419296</v>
       </c>
       <c r="I19" t="n">
-        <v>-205244.5042527902</v>
+        <v>4904922.857204441</v>
       </c>
       <c r="J19" t="n">
-        <v>118489.0652535397</v>
+        <v>6741384.110427501</v>
       </c>
       <c r="K19" t="n">
-        <v>-186806.3352888308</v>
+        <v>5295717.829112611</v>
       </c>
       <c r="L19" t="n">
-        <v>-247431.8414460971</v>
+        <v>6485443.626084765</v>
       </c>
       <c r="M19" t="n">
-        <v>-108165.7093797603</v>
+        <v>3497333.413123137</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>856275.3340802221</v>
+        <v>2209471.812414282</v>
       </c>
       <c r="C20" t="n">
-        <v>2418776.547648125</v>
+        <v>2412072.09421487</v>
       </c>
       <c r="D20" t="n">
-        <v>2201139.649863863</v>
+        <v>237371.5082066201</v>
       </c>
       <c r="E20" t="n">
-        <v>2266356.396552349</v>
+        <v>442362.8724400148</v>
       </c>
       <c r="F20" t="n">
-        <v>2269779.882169484</v>
+        <v>1426727.869282512</v>
       </c>
       <c r="G20" t="n">
-        <v>2662903.736332595</v>
+        <v>311571.262126989</v>
       </c>
       <c r="H20" t="n">
-        <v>2230325.398861368</v>
+        <v>-222241.1073348098</v>
       </c>
       <c r="I20" t="n">
-        <v>2401313.520550059</v>
+        <v>394780.4414222149</v>
       </c>
       <c r="J20" t="n">
-        <v>2416901.728241012</v>
+        <v>743806.6913392609</v>
       </c>
       <c r="K20" t="n">
-        <v>2661659.524235586</v>
+        <v>734164.4898958218</v>
       </c>
       <c r="L20" t="n">
-        <v>2585694.322018907</v>
+        <v>-421832.070144994</v>
       </c>
       <c r="M20" t="n">
-        <v>3089711.892770106</v>
+        <v>-622879.7145645142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1213937.939663049</v>
+        <v>2908787.630820632</v>
       </c>
       <c r="C21" t="n">
-        <v>1956342.843286283</v>
+        <v>3118786.973048657</v>
       </c>
       <c r="D21" t="n">
-        <v>1600340.307827952</v>
+        <v>3851921.666177134</v>
       </c>
       <c r="E21" t="n">
-        <v>2264662.776752548</v>
+        <v>3461155.739139844</v>
       </c>
       <c r="F21" t="n">
-        <v>2367787.799303984</v>
+        <v>4184892.033305177</v>
       </c>
       <c r="G21" t="n">
-        <v>1815964.18135</v>
+        <v>3505470.328269486</v>
       </c>
       <c r="H21" t="n">
-        <v>2183863.776120657</v>
+        <v>3294535.970514426</v>
       </c>
       <c r="I21" t="n">
-        <v>1653326.054906243</v>
+        <v>3339447.419067943</v>
       </c>
       <c r="J21" t="n">
-        <v>1741456.89259953</v>
+        <v>4613938.950884426</v>
       </c>
       <c r="K21" t="n">
-        <v>2501424.015418875</v>
+        <v>4230423.523142582</v>
       </c>
       <c r="L21" t="n">
-        <v>1879722.255445371</v>
+        <v>4505957.754778888</v>
       </c>
       <c r="M21" t="n">
-        <v>1894371.524485725</v>
+        <v>3738895.212850725</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>396755.5755392775</v>
+        <v>10810277.27265411</v>
       </c>
       <c r="C22" t="n">
-        <v>-180210.0840204338</v>
+        <v>11225272.29332001</v>
       </c>
       <c r="D22" t="n">
-        <v>479294.7096231369</v>
+        <v>13924011.43901628</v>
       </c>
       <c r="E22" t="n">
-        <v>200318.804230609</v>
+        <v>11685409.16177958</v>
       </c>
       <c r="F22" t="n">
-        <v>-266666.8921377967</v>
+        <v>13946970.13909995</v>
       </c>
       <c r="G22" t="n">
-        <v>-345309.9804150923</v>
+        <v>12541656.81272798</v>
       </c>
       <c r="H22" t="n">
-        <v>-761692.9341893822</v>
+        <v>12068671.74811133</v>
       </c>
       <c r="I22" t="n">
-        <v>-889239.3372936972</v>
+        <v>14101155.66319567</v>
       </c>
       <c r="J22" t="n">
-        <v>-900133.9635148447</v>
+        <v>15619368.66523444</v>
       </c>
       <c r="K22" t="n">
-        <v>-807209.6103273791</v>
+        <v>15087175.84897092</v>
       </c>
       <c r="L22" t="n">
-        <v>21379.81571676733</v>
+        <v>15391058.27684053</v>
       </c>
       <c r="M22" t="n">
-        <v>543293.2560202094</v>
+        <v>12471064.05933149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-91503.30324176379</v>
+        <v>6900739.675493376</v>
       </c>
       <c r="C23" t="n">
-        <v>69488.38172670745</v>
+        <v>6505105.830200707</v>
       </c>
       <c r="D23" t="n">
-        <v>17134.33897464518</v>
+        <v>7292446.788440374</v>
       </c>
       <c r="E23" t="n">
-        <v>-71458.33745301804</v>
+        <v>6003369.606272431</v>
       </c>
       <c r="F23" t="n">
-        <v>-26583.83531582633</v>
+        <v>7624305.084214724</v>
       </c>
       <c r="G23" t="n">
-        <v>-91704.65435138988</v>
+        <v>7336736.350857016</v>
       </c>
       <c r="H23" t="n">
-        <v>-91534.27300608589</v>
+        <v>14010448.77087935</v>
       </c>
       <c r="I23" t="n">
-        <v>-91540.66061792301</v>
+        <v>10677724.51355079</v>
       </c>
       <c r="J23" t="n">
-        <v>-91546.64365185604</v>
+        <v>7541103.69086661</v>
       </c>
       <c r="K23" t="n">
-        <v>-90412.45689160781</v>
+        <v>7349694.528771386</v>
       </c>
       <c r="L23" t="n">
-        <v>-84023.90110455229</v>
+        <v>7350876.144440387</v>
       </c>
       <c r="M23" t="n">
-        <v>205512.8753644723</v>
+        <v>3438299.220046927</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9146725.606867116</v>
+        <v>10344805.76855354</v>
       </c>
       <c r="C24" t="n">
-        <v>12353749.6729646</v>
+        <v>12040827.29166267</v>
       </c>
       <c r="D24" t="n">
-        <v>14318175.7180941</v>
+        <v>12458748.40892597</v>
       </c>
       <c r="E24" t="n">
-        <v>13813641.07215391</v>
+        <v>9985836.307888262</v>
       </c>
       <c r="F24" t="n">
-        <v>12749203.69800802</v>
+        <v>11253739.43784464</v>
       </c>
       <c r="G24" t="n">
-        <v>12994874.26969263</v>
+        <v>11751507.97889943</v>
       </c>
       <c r="H24" t="n">
-        <v>13378499.52420739</v>
+        <v>10690933.68530611</v>
       </c>
       <c r="I24" t="n">
-        <v>11177144.81173455</v>
+        <v>12348988.12802204</v>
       </c>
       <c r="J24" t="n">
-        <v>12609750.28016188</v>
+        <v>11984106.61563587</v>
       </c>
       <c r="K24" t="n">
-        <v>11352147.11245222</v>
+        <v>12756988.33628234</v>
       </c>
       <c r="L24" t="n">
-        <v>11887793.22094198</v>
+        <v>15487618.61686523</v>
       </c>
       <c r="M24" t="n">
-        <v>14538826.03915838</v>
+        <v>10393325.61529307</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1913500.745649389</v>
+        <v>3923037.396389171</v>
       </c>
       <c r="C25" t="n">
-        <v>2969992.578983115</v>
+        <v>5111210.044442307</v>
       </c>
       <c r="D25" t="n">
-        <v>2727196.321346982</v>
+        <v>5092872.659606312</v>
       </c>
       <c r="E25" t="n">
-        <v>2849568.494470874</v>
+        <v>3447316.189406581</v>
       </c>
       <c r="F25" t="n">
-        <v>2769517.314387871</v>
+        <v>3716954.836323326</v>
       </c>
       <c r="G25" t="n">
-        <v>2462699.530565419</v>
+        <v>4546470.546493416</v>
       </c>
       <c r="H25" t="n">
-        <v>2615864.915747618</v>
+        <v>3954274.229913376</v>
       </c>
       <c r="I25" t="n">
-        <v>2705126.938072577</v>
+        <v>5570236.560584201</v>
       </c>
       <c r="J25" t="n">
-        <v>2419026.875602138</v>
+        <v>5459890.441023912</v>
       </c>
       <c r="K25" t="n">
-        <v>3374337.159081813</v>
+        <v>5012219.239155294</v>
       </c>
       <c r="L25" t="n">
-        <v>3238707.559572529</v>
+        <v>6004353.218166652</v>
       </c>
       <c r="M25" t="n">
-        <v>2955065.41976296</v>
+        <v>3417462.883609805</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11881307.68134824</v>
+        <v>10823175.31096998</v>
       </c>
       <c r="C26" t="n">
-        <v>12289281.25760636</v>
+        <v>10753274.48976159</v>
       </c>
       <c r="D26" t="n">
-        <v>14593988.0884369</v>
+        <v>10267925.87893389</v>
       </c>
       <c r="E26" t="n">
-        <v>16957970.59948999</v>
+        <v>11820320.49508832</v>
       </c>
       <c r="F26" t="n">
-        <v>16138269.94838029</v>
+        <v>10505839.15783497</v>
       </c>
       <c r="G26" t="n">
-        <v>16660950.95409721</v>
+        <v>9728920.998549934</v>
       </c>
       <c r="H26" t="n">
-        <v>15474137.45033391</v>
+        <v>12703579.59651235</v>
       </c>
       <c r="I26" t="n">
-        <v>16095298.37696435</v>
+        <v>12858227.08138463</v>
       </c>
       <c r="J26" t="n">
-        <v>15040449.70736693</v>
+        <v>12918636.78766663</v>
       </c>
       <c r="K26" t="n">
-        <v>15304466.24906367</v>
+        <v>11958544.89971195</v>
       </c>
       <c r="L26" t="n">
-        <v>15079732.80733609</v>
+        <v>14570296.11239861</v>
       </c>
       <c r="M26" t="n">
-        <v>17070951.87386586</v>
+        <v>11918056.12611113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16104654.5546205</v>
+        <v>3370125.35407752</v>
       </c>
       <c r="C27" t="n">
-        <v>17391516.89860986</v>
+        <v>4003704.076593232</v>
       </c>
       <c r="D27" t="n">
-        <v>18708059.44505961</v>
+        <v>3138842.747637429</v>
       </c>
       <c r="E27" t="n">
-        <v>17565893.04875425</v>
+        <v>2825008.722462568</v>
       </c>
       <c r="F27" t="n">
-        <v>17729965.49532109</v>
+        <v>1978187.181992789</v>
       </c>
       <c r="G27" t="n">
-        <v>18469073.55850436</v>
+        <v>3175390.169596964</v>
       </c>
       <c r="H27" t="n">
-        <v>18506591.69727962</v>
+        <v>3167200.631045176</v>
       </c>
       <c r="I27" t="n">
-        <v>19251387.26271911</v>
+        <v>2718327.62437698</v>
       </c>
       <c r="J27" t="n">
-        <v>19776387.10061057</v>
+        <v>2820458.414526254</v>
       </c>
       <c r="K27" t="n">
-        <v>19954028.88683645</v>
+        <v>2278515.852166583</v>
       </c>
       <c r="L27" t="n">
-        <v>21031563.65917505</v>
+        <v>3530519.763952898</v>
       </c>
       <c r="M27" t="n">
-        <v>27782039.56325823</v>
+        <v>1883305.030297151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19322037.26769894</v>
+        <v>12217961.28508075</v>
       </c>
       <c r="C28" t="n">
-        <v>19534153.79420695</v>
+        <v>12133578.46542194</v>
       </c>
       <c r="D28" t="n">
-        <v>21109850.60605968</v>
+        <v>12317243.73684104</v>
       </c>
       <c r="E28" t="n">
-        <v>22985182.79674095</v>
+        <v>9359542.853390871</v>
       </c>
       <c r="F28" t="n">
-        <v>24266456.65859993</v>
+        <v>11870373.88012395</v>
       </c>
       <c r="G28" t="n">
-        <v>24517951.86685034</v>
+        <v>12578691.26724544</v>
       </c>
       <c r="H28" t="n">
-        <v>24670439.20185628</v>
+        <v>12690100.96004464</v>
       </c>
       <c r="I28" t="n">
-        <v>25056314.2200139</v>
+        <v>10138453.29355299</v>
       </c>
       <c r="J28" t="n">
-        <v>25614511.80816821</v>
+        <v>9654522.014964841</v>
       </c>
       <c r="K28" t="n">
-        <v>26252260.60040464</v>
+        <v>11484976.57035071</v>
       </c>
       <c r="L28" t="n">
-        <v>26468295.20818331</v>
+        <v>15527303.70312736</v>
       </c>
       <c r="M28" t="n">
-        <v>27184236.40462314</v>
+        <v>11101110.36595046</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22380443.21474987</v>
+        <v>1842412.596962252</v>
       </c>
       <c r="C29" t="n">
-        <v>23907873.07540595</v>
+        <v>2102138.697344314</v>
       </c>
       <c r="D29" t="n">
-        <v>24583863.49949379</v>
+        <v>2238488.755581035</v>
       </c>
       <c r="E29" t="n">
-        <v>25807579.54939724</v>
+        <v>2236153.492820323</v>
       </c>
       <c r="F29" t="n">
-        <v>26473431.89213415</v>
+        <v>2389785.578795923</v>
       </c>
       <c r="G29" t="n">
-        <v>28817685.89596056</v>
+        <v>2417248.027611855</v>
       </c>
       <c r="H29" t="n">
-        <v>29227819.58601215</v>
+        <v>2287639.182080425</v>
       </c>
       <c r="I29" t="n">
-        <v>30323949.24506025</v>
+        <v>2309306.044918303</v>
       </c>
       <c r="J29" t="n">
-        <v>32105711.83620998</v>
+        <v>2208080.448052383</v>
       </c>
       <c r="K29" t="n">
-        <v>34113683.98961926</v>
+        <v>2268656.99821265</v>
       </c>
       <c r="L29" t="n">
-        <v>35051057.01569167</v>
+        <v>2246002.963651232</v>
       </c>
       <c r="M29" t="n">
-        <v>34369708.68215799</v>
+        <v>2279060.441658596</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41063418.83725388</v>
+        <v>388426.6231583591</v>
       </c>
       <c r="C30" t="n">
-        <v>46124142.23444546</v>
+        <v>361895.3125813539</v>
       </c>
       <c r="D30" t="n">
-        <v>45777973.80952861</v>
+        <v>490082.0094650885</v>
       </c>
       <c r="E30" t="n">
-        <v>48975773.17929565</v>
+        <v>360068.5621744938</v>
       </c>
       <c r="F30" t="n">
-        <v>44135237.07748204</v>
+        <v>302741.6750490734</v>
       </c>
       <c r="G30" t="n">
-        <v>47692531.25989892</v>
+        <v>454862.3149474474</v>
       </c>
       <c r="H30" t="n">
-        <v>53814729.55087281</v>
+        <v>407425.839900144</v>
       </c>
       <c r="I30" t="n">
-        <v>48417571.97765367</v>
+        <v>403424.4219729314</v>
       </c>
       <c r="J30" t="n">
-        <v>52722580.52209878</v>
+        <v>400498.2615342292</v>
       </c>
       <c r="K30" t="n">
-        <v>55418532.9203821</v>
+        <v>410371.6782406078</v>
       </c>
       <c r="L30" t="n">
-        <v>54484987.88510218</v>
+        <v>770959.0002034345</v>
       </c>
       <c r="M30" t="n">
-        <v>48837915.97918749</v>
+        <v>449458.2509588935</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34774455.91560242</v>
+        <v>3042583.005128942</v>
       </c>
       <c r="C31" t="n">
-        <v>38153123.11643033</v>
+        <v>3281468.73643136</v>
       </c>
       <c r="D31" t="n">
-        <v>36798777.68795164</v>
+        <v>3297812.875688692</v>
       </c>
       <c r="E31" t="n">
-        <v>41372563.12427678</v>
+        <v>3062852.056091749</v>
       </c>
       <c r="F31" t="n">
-        <v>35036934.70047656</v>
+        <v>3163911.460523308</v>
       </c>
       <c r="G31" t="n">
-        <v>40125283.00210853</v>
+        <v>3006870.745906749</v>
       </c>
       <c r="H31" t="n">
-        <v>44271396.76101226</v>
+        <v>3111631.788782585</v>
       </c>
       <c r="I31" t="n">
-        <v>45686467.08935282</v>
+        <v>3311191.482004269</v>
       </c>
       <c r="J31" t="n">
-        <v>45858651.69111853</v>
+        <v>3424735.08609188</v>
       </c>
       <c r="K31" t="n">
-        <v>48901035.41906474</v>
+        <v>3530542.902083529</v>
       </c>
       <c r="L31" t="n">
-        <v>42768779.75225154</v>
+        <v>3506859.048502296</v>
       </c>
       <c r="M31" t="n">
-        <v>40371775.44464212</v>
+        <v>3162891.266943426</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1525110.410145278</v>
+        <v>1524110.971676043</v>
       </c>
       <c r="C32" t="n">
-        <v>1687536.498928512</v>
+        <v>1767947.172829256</v>
       </c>
       <c r="D32" t="n">
-        <v>1832427.97441321</v>
+        <v>1885139.663887032</v>
       </c>
       <c r="E32" t="n">
-        <v>1921478.025351377</v>
+        <v>1715805.517195123</v>
       </c>
       <c r="F32" t="n">
-        <v>1989200.006683114</v>
+        <v>1810986.615533225</v>
       </c>
       <c r="G32" t="n">
-        <v>2285378.9610695</v>
+        <v>1861080.897937004</v>
       </c>
       <c r="H32" t="n">
-        <v>2357828.466074756</v>
+        <v>1715124.164548558</v>
       </c>
       <c r="I32" t="n">
-        <v>2478572.222651461</v>
+        <v>1972933.242009531</v>
       </c>
       <c r="J32" t="n">
-        <v>2594234.801784079</v>
+        <v>1957066.362450889</v>
       </c>
       <c r="K32" t="n">
-        <v>2708227.445074064</v>
+        <v>1816146.179714064</v>
       </c>
       <c r="L32" t="n">
-        <v>2823951.623824062</v>
+        <v>1969792.185723816</v>
       </c>
       <c r="M32" t="n">
-        <v>2932111.114715931</v>
+        <v>1613410.277630299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4993208.1332458</v>
+        <v>2725907.924884746</v>
       </c>
       <c r="C33" t="n">
-        <v>5105853.362692279</v>
+        <v>2997758.297044867</v>
       </c>
       <c r="D33" t="n">
-        <v>6320600.875858925</v>
+        <v>3121340.258419627</v>
       </c>
       <c r="E33" t="n">
-        <v>6878602.784606165</v>
+        <v>2962879.308718412</v>
       </c>
       <c r="F33" t="n">
-        <v>5575643.233126428</v>
+        <v>3548784.124342318</v>
       </c>
       <c r="G33" t="n">
-        <v>5943848.838729704</v>
+        <v>3793069.943993137</v>
       </c>
       <c r="H33" t="n">
-        <v>5637268.407027042</v>
+        <v>3827908.854901952</v>
       </c>
       <c r="I33" t="n">
-        <v>6697348.280278131</v>
+        <v>3776996.643831109</v>
       </c>
       <c r="J33" t="n">
-        <v>6327497.899533808</v>
+        <v>3815918.157914158</v>
       </c>
       <c r="K33" t="n">
-        <v>6273977.12600039</v>
+        <v>3721409.108530616</v>
       </c>
       <c r="L33" t="n">
-        <v>7066310.771719721</v>
+        <v>3894640.992281226</v>
       </c>
       <c r="M33" t="n">
-        <v>6737889.229431753</v>
+        <v>3917302.424514044</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11766477.31706749</v>
+        <v>2594458.279060467</v>
       </c>
       <c r="C34" t="n">
-        <v>9615032.545933712</v>
+        <v>2772159.593254423</v>
       </c>
       <c r="D34" t="n">
-        <v>9723174.743214713</v>
+        <v>2976641.906991594</v>
       </c>
       <c r="E34" t="n">
-        <v>12125165.6861036</v>
+        <v>3105294.44033065</v>
       </c>
       <c r="F34" t="n">
-        <v>11147852.07520579</v>
+        <v>3176569.762948072</v>
       </c>
       <c r="G34" t="n">
-        <v>11171438.65069783</v>
+        <v>2957014.016091853</v>
       </c>
       <c r="H34" t="n">
-        <v>11128078.46038288</v>
+        <v>3872057.813740659</v>
       </c>
       <c r="I34" t="n">
-        <v>9987171.127324335</v>
+        <v>2967791.20929331</v>
       </c>
       <c r="J34" t="n">
-        <v>13254342.90593197</v>
+        <v>3956968.60254301</v>
       </c>
       <c r="K34" t="n">
-        <v>12531763.57298989</v>
+        <v>3222047.655422368</v>
       </c>
       <c r="L34" t="n">
-        <v>14182031.79559499</v>
+        <v>3706598.736598438</v>
       </c>
       <c r="M34" t="n">
-        <v>13811911.90859546</v>
+        <v>3343037.283144818</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5179223.277546763</v>
+        <v>1226757.834238589</v>
       </c>
       <c r="C35" t="n">
-        <v>6253918.87521553</v>
+        <v>1653910.479236602</v>
       </c>
       <c r="D35" t="n">
-        <v>5590099.238808298</v>
+        <v>1340625.729885637</v>
       </c>
       <c r="E35" t="n">
-        <v>6029261.31184117</v>
+        <v>1271588.963433207</v>
       </c>
       <c r="F35" t="n">
-        <v>5786173.236183558</v>
+        <v>1154091.364611599</v>
       </c>
       <c r="G35" t="n">
-        <v>6151953.849627311</v>
+        <v>1614214.480046852</v>
       </c>
       <c r="H35" t="n">
-        <v>6443817.433262439</v>
+        <v>1429005.008400938</v>
       </c>
       <c r="I35" t="n">
-        <v>6449556.059662606</v>
+        <v>1598678.898871746</v>
       </c>
       <c r="J35" t="n">
-        <v>7133594.037853031</v>
+        <v>1778022.946746223</v>
       </c>
       <c r="K35" t="n">
-        <v>7278282.379100359</v>
+        <v>1547019.209364708</v>
       </c>
       <c r="L35" t="n">
-        <v>7652607.652769407</v>
+        <v>1509155.887908071</v>
       </c>
       <c r="M35" t="n">
-        <v>7116543.491304427</v>
+        <v>1324459.315952559</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3098523.977083656</v>
+        <v>1305778.969894209</v>
       </c>
       <c r="C36" t="n">
-        <v>4173611.089569345</v>
+        <v>1097375.922464601</v>
       </c>
       <c r="D36" t="n">
-        <v>3602104.198706872</v>
+        <v>1284760.095642574</v>
       </c>
       <c r="E36" t="n">
-        <v>3715572.484917138</v>
+        <v>1174727.677607758</v>
       </c>
       <c r="F36" t="n">
-        <v>4825251.176499033</v>
+        <v>1225849.160028078</v>
       </c>
       <c r="G36" t="n">
-        <v>3664630.381324055</v>
+        <v>1169460.167535754</v>
       </c>
       <c r="H36" t="n">
-        <v>3033703.073977392</v>
+        <v>925566.3987713529</v>
       </c>
       <c r="I36" t="n">
-        <v>3721797.258187718</v>
+        <v>923531.1631545534</v>
       </c>
       <c r="J36" t="n">
-        <v>4163367.91584835</v>
+        <v>1125709.347561484</v>
       </c>
       <c r="K36" t="n">
-        <v>3621780.581831571</v>
+        <v>749389.5479123283</v>
       </c>
       <c r="L36" t="n">
-        <v>3527283.289850806</v>
+        <v>834733.1362460495</v>
       </c>
       <c r="M36" t="n">
-        <v>4062812.521711021</v>
+        <v>816076.1017122015</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3331477.267574362</v>
+        <v>2874111.548208043</v>
       </c>
       <c r="C37" t="n">
-        <v>4865779.649804887</v>
+        <v>4322383.475336</v>
       </c>
       <c r="D37" t="n">
-        <v>6516011.443593229</v>
+        <v>4403150.018022614</v>
       </c>
       <c r="E37" t="n">
-        <v>4427711.819129239</v>
+        <v>3752883.726665463</v>
       </c>
       <c r="F37" t="n">
-        <v>3853393.69549039</v>
+        <v>3814300.927485431</v>
       </c>
       <c r="G37" t="n">
-        <v>3775200.783349728</v>
+        <v>4276445.682353601</v>
       </c>
       <c r="H37" t="n">
-        <v>6255066.464297459</v>
+        <v>4885016.604587115</v>
       </c>
       <c r="I37" t="n">
-        <v>6925690.120444298</v>
+        <v>4371258.798104915</v>
       </c>
       <c r="J37" t="n">
-        <v>4657256.879966267</v>
+        <v>5202229.720249864</v>
       </c>
       <c r="K37" t="n">
-        <v>6479731.438423907</v>
+        <v>4750478.690861508</v>
       </c>
       <c r="L37" t="n">
-        <v>5020078.12225093</v>
+        <v>4248427.418262067</v>
       </c>
       <c r="M37" t="n">
-        <v>6195816.098972861</v>
+        <v>3939519.504338708</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>960087.9295708048</v>
+        <v>4319652.784798423</v>
       </c>
       <c r="C38" t="n">
-        <v>2387152.677940475</v>
+        <v>4099386.886387283</v>
       </c>
       <c r="D38" t="n">
-        <v>2609845.034322558</v>
+        <v>4472405.44226832</v>
       </c>
       <c r="E38" t="n">
-        <v>455232.9875343047</v>
+        <v>4839952.388200385</v>
       </c>
       <c r="F38" t="n">
-        <v>680311.7612199178</v>
+        <v>4631680.990975576</v>
       </c>
       <c r="G38" t="n">
-        <v>1684762.690056885</v>
+        <v>4772472.239729268</v>
       </c>
       <c r="H38" t="n">
-        <v>596018.6111349789</v>
+        <v>4874610.645798651</v>
       </c>
       <c r="I38" t="n">
-        <v>75962.99027465098</v>
+        <v>5501113.882259307</v>
       </c>
       <c r="J38" t="n">
-        <v>713067.2392168085</v>
+        <v>5369567.199934415</v>
       </c>
       <c r="K38" t="n">
-        <v>1082175.908069206</v>
+        <v>4877902.298724321</v>
       </c>
       <c r="L38" t="n">
-        <v>1092616.777516361</v>
+        <v>5530182.010085467</v>
       </c>
       <c r="M38" t="n">
-        <v>-43297.1108362691</v>
+        <v>4625897.256191647</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3847398.632888882</v>
+        <v>4469473.254147477</v>
       </c>
       <c r="C39" t="n">
-        <v>3348124.033852279</v>
+        <v>5187348.461999627</v>
       </c>
       <c r="D39" t="n">
-        <v>3546023.67827518</v>
+        <v>5361186.567131347</v>
       </c>
       <c r="E39" t="n">
-        <v>4267030.176380254</v>
+        <v>5366789.183941112</v>
       </c>
       <c r="F39" t="n">
-        <v>3864198.429608649</v>
+        <v>5279524.032054741</v>
       </c>
       <c r="G39" t="n">
-        <v>4575797.128398832</v>
+        <v>5644843.102166963</v>
       </c>
       <c r="H39" t="n">
-        <v>3494052.391226632</v>
+        <v>5535315.867154778</v>
       </c>
       <c r="I39" t="n">
-        <v>3661193.035071209</v>
+        <v>5681786.142077809</v>
       </c>
       <c r="J39" t="n">
-        <v>3693994.218700432</v>
+        <v>6377523.555185508</v>
       </c>
       <c r="K39" t="n">
-        <v>4956396.75698167</v>
+        <v>5275661.09353346</v>
       </c>
       <c r="L39" t="n">
-        <v>4560827.651822316</v>
+        <v>5351888.133511327</v>
       </c>
       <c r="M39" t="n">
-        <v>4824263.94644542</v>
+        <v>5011089.65844763</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10925509.17777708</v>
+        <v>4430463.88942167</v>
       </c>
       <c r="C40" t="n">
-        <v>11162195.24378402</v>
+        <v>5208106.111012643</v>
       </c>
       <c r="D40" t="n">
-        <v>11590125.6863051</v>
+        <v>5258942.438859412</v>
       </c>
       <c r="E40" t="n">
-        <v>14301800.00624739</v>
+        <v>4976905.796199496</v>
       </c>
       <c r="F40" t="n">
-        <v>12076149.54833218</v>
+        <v>5327600.275074649</v>
       </c>
       <c r="G40" t="n">
-        <v>14350654.44168338</v>
+        <v>5125030.876357893</v>
       </c>
       <c r="H40" t="n">
-        <v>12722587.68375343</v>
+        <v>5545017.437398137</v>
       </c>
       <c r="I40" t="n">
-        <v>12498235.72532939</v>
+        <v>5383204.559661522</v>
       </c>
       <c r="J40" t="n">
-        <v>14543665.17754489</v>
+        <v>5714184.456908045</v>
       </c>
       <c r="K40" t="n">
-        <v>16074810.2207487</v>
+        <v>5371963.743833009</v>
       </c>
       <c r="L40" t="n">
-        <v>15555569.55315857</v>
+        <v>5677676.376852768</v>
       </c>
       <c r="M40" t="n">
-        <v>15872388.75482152</v>
+        <v>4704922.037330123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2835523.370420477</v>
+        <v>2424297.50345822</v>
       </c>
       <c r="C41" t="n">
-        <v>6969177.588759299</v>
+        <v>3100065.377261778</v>
       </c>
       <c r="D41" t="n">
-        <v>6572156.837264136</v>
+        <v>3550737.528973032</v>
       </c>
       <c r="E41" t="n">
-        <v>7358114.078332292</v>
+        <v>2826542.756215499</v>
       </c>
       <c r="F41" t="n">
-        <v>6067648.761544209</v>
+        <v>3072809.90563858</v>
       </c>
       <c r="G41" t="n">
-        <v>7687206.501056931</v>
+        <v>3268730.896841138</v>
       </c>
       <c r="H41" t="n">
-        <v>6792407.343254279</v>
+        <v>3316217.780964306</v>
       </c>
       <c r="I41" t="n">
-        <v>14070602.79001813</v>
+        <v>3535587.488965165</v>
       </c>
       <c r="J41" t="n">
-        <v>10736494.41461502</v>
+        <v>3654667.683217027</v>
       </c>
       <c r="K41" t="n">
-        <v>7598502.275003154</v>
+        <v>3102371.085391761</v>
       </c>
       <c r="L41" t="n">
-        <v>7405725.45393849</v>
+        <v>3768883.122656599</v>
       </c>
       <c r="M41" t="n">
-        <v>7405556.12382169</v>
+        <v>3079845.364997244</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8226476.054999068</v>
+        <v>3539770.615028642</v>
       </c>
       <c r="C42" t="n">
-        <v>10255002.39814852</v>
+        <v>3820948.002330984</v>
       </c>
       <c r="D42" t="n">
-        <v>11946459.65137963</v>
+        <v>4101610.823237841</v>
       </c>
       <c r="E42" t="n">
-        <v>12359726.66732701</v>
+        <v>3990201.432124056</v>
       </c>
       <c r="F42" t="n">
-        <v>9882181.716238648</v>
+        <v>4078127.009403279</v>
       </c>
       <c r="G42" t="n">
-        <v>11145450.40194655</v>
+        <v>4090461.052421785</v>
       </c>
       <c r="H42" t="n">
-        <v>11642151.07592963</v>
+        <v>4545131.982914385</v>
       </c>
       <c r="I42" t="n">
-        <v>10573399.16155157</v>
+        <v>5032255.247597271</v>
       </c>
       <c r="J42" t="n">
-        <v>12226804.75297245</v>
+        <v>4828394.760010062</v>
       </c>
       <c r="K42" t="n">
-        <v>11857295.05499301</v>
+        <v>4628606.219614723</v>
       </c>
       <c r="L42" t="n">
-        <v>12625490.68728445</v>
+        <v>4484334.302795314</v>
       </c>
       <c r="M42" t="n">
-        <v>15351544.78340161</v>
+        <v>3414461.365607275</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3069252.916963648</v>
+        <v>2197674.125048745</v>
       </c>
       <c r="C43" t="n">
-        <v>3731266.185709062</v>
+        <v>3170787.876534996</v>
       </c>
       <c r="D43" t="n">
-        <v>4901603.387765995</v>
+        <v>3287039.01918022</v>
       </c>
       <c r="E43" t="n">
-        <v>4865440.662804052</v>
+        <v>3108274.870088078</v>
       </c>
       <c r="F43" t="n">
-        <v>3202060.477519033</v>
+        <v>3009840.748053594</v>
       </c>
       <c r="G43" t="n">
-        <v>3453873.86152702</v>
+        <v>3058668.776823309</v>
       </c>
       <c r="H43" t="n">
-        <v>4301318.88938213</v>
+        <v>3130965.840240695</v>
       </c>
       <c r="I43" t="n">
-        <v>3655545.777941666</v>
+        <v>3158822.543412746</v>
       </c>
       <c r="J43" t="n">
-        <v>5253686.390246135</v>
+        <v>3170465.654954929</v>
       </c>
       <c r="K43" t="n">
-        <v>5125521.691652549</v>
+        <v>3289429.795356398</v>
       </c>
       <c r="L43" t="n">
-        <v>4660029.631647129</v>
+        <v>3512911.63921196</v>
       </c>
       <c r="M43" t="n">
-        <v>5634346.326102195</v>
+        <v>2456729.309703222</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11269052.01173594</v>
+        <v>4813759.332355663</v>
       </c>
       <c r="C44" t="n">
-        <v>14248719.56192906</v>
+        <v>5625191.360348666</v>
       </c>
       <c r="D44" t="n">
-        <v>14187745.48847846</v>
+        <v>5086254.965126894</v>
       </c>
       <c r="E44" t="n">
-        <v>13711303.17558382</v>
+        <v>4415686.751180397</v>
       </c>
       <c r="F44" t="n">
-        <v>15272605.65840317</v>
+        <v>4733497.931865788</v>
       </c>
       <c r="G44" t="n">
-        <v>13967034.16314627</v>
+        <v>5261677.604443043</v>
       </c>
       <c r="H44" t="n">
-        <v>14006272.66598968</v>
+        <v>4722291.308979664</v>
       </c>
       <c r="I44" t="n">
-        <v>16182912.53044594</v>
+        <v>5849838.97512354</v>
       </c>
       <c r="J44" t="n">
-        <v>16346143.98222106</v>
+        <v>5125728.999364272</v>
       </c>
       <c r="K44" t="n">
-        <v>16415461.747363</v>
+        <v>4952049.838719161</v>
       </c>
       <c r="L44" t="n">
-        <v>15464278.87009044</v>
+        <v>5848521.852303926</v>
       </c>
       <c r="M44" t="n">
-        <v>18084934.81891702</v>
+        <v>4258645.083527531</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3619638.343363034</v>
+        <v>2422713.361892402</v>
       </c>
       <c r="C45" t="n">
-        <v>4623288.045140148</v>
+        <v>2863284.611702576</v>
       </c>
       <c r="D45" t="n">
-        <v>5266052.876617384</v>
+        <v>3221743.288447917</v>
       </c>
       <c r="E45" t="n">
-        <v>4410266.796139531</v>
+        <v>3089280.237190317</v>
       </c>
       <c r="F45" t="n">
-        <v>4105569.790790548</v>
+        <v>2702265.75774125</v>
       </c>
       <c r="G45" t="n">
-        <v>3267785.812066683</v>
+        <v>2998309.697719502</v>
       </c>
       <c r="H45" t="n">
-        <v>5313110.624126476</v>
+        <v>3016614.91565092</v>
       </c>
       <c r="I45" t="n">
-        <v>4475272.223109364</v>
+        <v>3557137.421276537</v>
       </c>
       <c r="J45" t="n">
-        <v>4035392.037207841</v>
+        <v>2893602.324454749</v>
       </c>
       <c r="K45" t="n">
-        <v>4146559.638247111</v>
+        <v>2966767.189974636</v>
       </c>
       <c r="L45" t="n">
-        <v>3613633.153807542</v>
+        <v>3109296.119611809</v>
       </c>
       <c r="M45" t="n">
-        <v>4874825.373912574</v>
+        <v>2524374.409561496</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9856742.559274394</v>
+        <v>2005227.414591993</v>
       </c>
       <c r="C46" t="n">
-        <v>13031073.78833128</v>
+        <v>2844688.863252119</v>
       </c>
       <c r="D46" t="n">
-        <v>12979787.96170949</v>
+        <v>2118797.79703311</v>
       </c>
       <c r="E46" t="n">
-        <v>13196473.94644695</v>
+        <v>2111987.421343629</v>
       </c>
       <c r="F46" t="n">
-        <v>10271862.34627518</v>
+        <v>2014274.470503158</v>
       </c>
       <c r="G46" t="n">
-        <v>12815767.59698571</v>
+        <v>2064819.899687636</v>
       </c>
       <c r="H46" t="n">
-        <v>16405267.16143152</v>
+        <v>2202414.493021438</v>
       </c>
       <c r="I46" t="n">
-        <v>13701938.09596161</v>
+        <v>2418639.856852394</v>
       </c>
       <c r="J46" t="n">
-        <v>11183282.13825627</v>
+        <v>2476876.287032047</v>
       </c>
       <c r="K46" t="n">
-        <v>10732403.75991601</v>
+        <v>1796687.226534429</v>
       </c>
       <c r="L46" t="n">
-        <v>12595952.16782131</v>
+        <v>2119602.55443615</v>
       </c>
       <c r="M46" t="n">
-        <v>16671410.13180673</v>
+        <v>1841630.692274603</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2321528.920843293</v>
+        <v>1917913.875516668</v>
       </c>
       <c r="C47" t="n">
-        <v>2340953.753604245</v>
+        <v>2098805.504529229</v>
       </c>
       <c r="D47" t="n">
-        <v>2632865.500215653</v>
+        <v>2367261.071107364</v>
       </c>
       <c r="E47" t="n">
-        <v>2801386.085119033</v>
+        <v>2432093.561086503</v>
       </c>
       <c r="F47" t="n">
-        <v>2831221.174446011</v>
+        <v>2136835.190547333</v>
       </c>
       <c r="G47" t="n">
-        <v>3017028.886745869</v>
+        <v>2222528.453768972</v>
       </c>
       <c r="H47" t="n">
-        <v>2933629.644104741</v>
+        <v>2277846.653787493</v>
       </c>
       <c r="I47" t="n">
-        <v>2979190.051975417</v>
+        <v>2284128.350880175</v>
       </c>
       <c r="J47" t="n">
-        <v>3033046.441080038</v>
+        <v>2335323.16801839</v>
       </c>
       <c r="K47" t="n">
-        <v>2964000.460962433</v>
+        <v>2129022.001283857</v>
       </c>
       <c r="L47" t="n">
-        <v>3056759.269262646</v>
+        <v>2113192.84336818</v>
       </c>
       <c r="M47" t="n">
-        <v>3066284.498274996</v>
+        <v>2176667.979816994</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>291630.1570286911</v>
+        <v>4757590.021360626</v>
       </c>
       <c r="C48" t="n">
-        <v>278946.2517590456</v>
+        <v>4876203.290346607</v>
       </c>
       <c r="D48" t="n">
-        <v>250500.5519588383</v>
+        <v>5260161.571963151</v>
       </c>
       <c r="E48" t="n">
-        <v>376769.8759241746</v>
+        <v>4790652.468575586</v>
       </c>
       <c r="F48" t="n">
-        <v>244844.1669529279</v>
+        <v>4578353.800888719</v>
       </c>
       <c r="G48" t="n">
-        <v>185601.8387663024</v>
+        <v>4898324.144137994</v>
       </c>
       <c r="H48" t="n">
-        <v>300076.3310500664</v>
+        <v>4875310.806120868</v>
       </c>
       <c r="I48" t="n">
-        <v>286446.5122039204</v>
+        <v>5348175.685061354</v>
       </c>
       <c r="J48" t="n">
-        <v>280537.5093792062</v>
+        <v>5397719.62103673</v>
       </c>
       <c r="K48" t="n">
-        <v>275687.7160999632</v>
+        <v>5094551.394878815</v>
       </c>
       <c r="L48" t="n">
-        <v>283651.508822448</v>
+        <v>5395144.228426053</v>
       </c>
       <c r="M48" t="n">
-        <v>642318.7244652278</v>
+        <v>5054669.435703311</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>521063.7538781578</v>
+        <v>966923.9670144815</v>
       </c>
       <c r="C49" t="n">
-        <v>628627.348685978</v>
+        <v>1223309.995020369</v>
       </c>
       <c r="D49" t="n">
-        <v>846035.0078554461</v>
+        <v>1251133.624610235</v>
       </c>
       <c r="E49" t="n">
-        <v>840804.6430815781</v>
+        <v>1035567.708777856</v>
       </c>
       <c r="F49" t="n">
-        <v>584243.9585675041</v>
+        <v>1041833.643596207</v>
       </c>
       <c r="G49" t="n">
-        <v>663824.6544575285</v>
+        <v>1100911.95768596</v>
       </c>
       <c r="H49" t="n">
-        <v>600403.8371687067</v>
+        <v>1138876.757100106</v>
       </c>
       <c r="I49" t="n">
-        <v>568484.3164107561</v>
+        <v>1256073.855577388</v>
       </c>
       <c r="J49" t="n">
-        <v>746474.0562122752</v>
+        <v>1099736.617065667</v>
       </c>
       <c r="K49" t="n">
-        <v>838459.9243559237</v>
+        <v>1139714.697351796</v>
       </c>
       <c r="L49" t="n">
-        <v>922743.8786744258</v>
+        <v>1199754.33433884</v>
       </c>
       <c r="M49" t="n">
-        <v>877485.1413900082</v>
+        <v>1108297.248803882</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1498308.306704307</v>
+        <v>2724384.606106084</v>
       </c>
       <c r="C50" t="n">
-        <v>1595359.473659078</v>
+        <v>2862997.758846049</v>
       </c>
       <c r="D50" t="n">
-        <v>1849909.525588155</v>
+        <v>3089620.644610429</v>
       </c>
       <c r="E50" t="n">
-        <v>1977813.934440927</v>
+        <v>3081115.128034459</v>
       </c>
       <c r="F50" t="n">
-        <v>1819190.16347899</v>
+        <v>3499914.755262728</v>
       </c>
       <c r="G50" t="n">
-        <v>1925078.643462522</v>
+        <v>3279429.186405647</v>
       </c>
       <c r="H50" t="n">
-        <v>1845313.830922702</v>
+        <v>3407979.224566611</v>
       </c>
       <c r="I50" t="n">
-        <v>1850602.766267867</v>
+        <v>3359417.615136225</v>
       </c>
       <c r="J50" t="n">
-        <v>2119129.427473253</v>
+        <v>3321165.567958479</v>
       </c>
       <c r="K50" t="n">
-        <v>2113979.260722922</v>
+        <v>3410242.028808111</v>
       </c>
       <c r="L50" t="n">
-        <v>1983769.530365312</v>
+        <v>3543234.136633817</v>
       </c>
       <c r="M50" t="n">
-        <v>2148126.000228811</v>
+        <v>3268112.775502142</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2903436.63473148</v>
+        <v>3186302.414350081</v>
       </c>
       <c r="C51" t="n">
-        <v>2819255.47176053</v>
+        <v>3226918.107057509</v>
       </c>
       <c r="D51" t="n">
-        <v>3068059.500062137</v>
+        <v>3601868.815047889</v>
       </c>
       <c r="E51" t="n">
-        <v>3168590.283547881</v>
+        <v>3514359.666757915</v>
       </c>
       <c r="F51" t="n">
-        <v>2987077.015946507</v>
+        <v>3511340.965793459</v>
       </c>
       <c r="G51" t="n">
-        <v>3549918.000983383</v>
+        <v>3496931.711564886</v>
       </c>
       <c r="H51" t="n">
-        <v>3809823.377458809</v>
+        <v>3639766.279841396</v>
       </c>
       <c r="I51" t="n">
-        <v>3782941.008013815</v>
+        <v>3806373.143991178</v>
       </c>
       <c r="J51" t="n">
-        <v>3708975.057256446</v>
+        <v>3821250.773814492</v>
       </c>
       <c r="K51" t="n">
-        <v>3724821.19043765</v>
+        <v>3850957.326753933</v>
       </c>
       <c r="L51" t="n">
-        <v>3607254.789282257</v>
+        <v>3815010.302887575</v>
       </c>
       <c r="M51" t="n">
-        <v>3757440.795744035</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2692945.944763049</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2605485.143795057</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2784199.1215552</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2989691.475861219</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3119356.409233221</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3191643.685666726</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3219383.618747205</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3889153.575959761</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2985905.356423465</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3976090.206927074</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3242182.68382591</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3727744.035040104</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1428820.239851038</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1509961.446767319</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1928520.970527358</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1606636.25325627</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1528993.826592976</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1402890.902649079</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1765212.587851895</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1660574.895797499</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1821655.345669372</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1992399.262724365</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1752795.897488982</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1706326.379855364</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>762250.1909177924</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1166508.659385345</v>
-      </c>
-      <c r="D54" t="n">
-        <v>906426.6780727208</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1042135.456533935</v>
-      </c>
-      <c r="F54" t="n">
-        <v>880424.2090129132</v>
-      </c>
-      <c r="G54" t="n">
-        <v>879871.4553421566</v>
-      </c>
-      <c r="H54" t="n">
-        <v>843567.5756436941</v>
-      </c>
-      <c r="I54" t="n">
-        <v>476251.2848341909</v>
-      </c>
-      <c r="J54" t="n">
-        <v>422539.8430425893</v>
-      </c>
-      <c r="K54" t="n">
-        <v>573041.5310053943</v>
-      </c>
-      <c r="L54" t="n">
-        <v>145045.9440259988</v>
-      </c>
-      <c r="M54" t="n">
-        <v>178711.9360118166</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2714398.471515763</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2770171.633788185</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4172970.248589342</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4208248.812681043</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3512522.675385481</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3528625.610910135</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4280702.054692561</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4508597.1079901</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3949286.399977583</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4734811.246653816</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4237619.14759382</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3690140.021534294</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3696858.157962145</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4342185.179527144</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4126067.869361499</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4503235.631107927</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4874930.929573594</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4670807.202733955</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4991723.253412501</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4922039.869052472</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5552692.171334073</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5425290.506265745</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4937775.227650266</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5594201.886122032</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4301690.603091782</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4663789.214904374</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5390754.063518178</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5573698.166105839</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5588407.518518673</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5510248.422238679</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5984299.931845681</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5784297.520532084</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5939870.922622309</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6644741.43233828</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5551989.107869119</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5637341.973012928</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4114543.960562328</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4478155.42187841</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5260388.800919392</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5315813.260758087</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5038364.909370926</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5393650.118987714</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5158891.810903177</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5620244.398596731</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5463020.477104677</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5798588.492088567</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5460957.839657268</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5771258.569543401</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2803013.795153626</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2493285.676105721</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3174017.417574041</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3629657.079530515</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2910448.687545671</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3161691.367473658</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3521892.396750524</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3415040.834038096</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3639390.59147405</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3763440.375514767</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3216114.324253253</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3887601.517374377</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3086517.417520153</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3553438.339370111</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3837752.785525231</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4121553.985098646</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4013282.204335378</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4104345.356766064</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4292265.559469267</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4577628.942747635</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5067890.75044429</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4867167.949958839</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4670517.756030803</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4529384.164706899</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2115477.019790242</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2099847.36440483</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3090507.865481952</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3224296.232080935</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3063086.315716513</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2982195.557672223</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3077054.608228482</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3138398.795927888</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3183791.30126683</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3212975.63621297</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3349472.223416648</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3590501.279228851</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4988615.232224791</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5374772.031965626</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6213580.377278472</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5702038.455246001</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5058891.762700638</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5404141.123259821</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6479286.661700055</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5447860.105016047</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6602791.861173971</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5906077.026858828</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5759803.290353001</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6683676.878437654</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2479910.363596609</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2526720.389757153</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2982323.096650438</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3355795.255085397</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3238390.849243066</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2866507.372240398</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3273575.08082462</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3210968.005656318</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3766527.693194479</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3118092.027712044</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3206255.320044566</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3363905.984554499</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2037738.478272936</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2174937.068377307</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3027541.435715622</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2314817.943811878</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2321175.530957339</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2236610.132031011</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2409476.235198423</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2451048.846310652</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2680458.825475158</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2751820.875931911</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2084778.662777348</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2420855.35438943</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2410645.440238603</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2503379.578476922</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2721180.200300394</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3026527.13564304</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3128251.035765807</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2869883.520568383</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3108629.553596935</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3084724.863908926</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3127849.801102891</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3215934.838378833</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3046523.90701572</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3067585.432947442</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4983886.86529607</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5222586.226517229</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5348984.472053712</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5740730.485999229</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5279012.44591483</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5074507.62555379</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5251743.400895132</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5387033.507069663</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5867696.716015812</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5925039.883836604</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5629669.3358946</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5938058.253734587</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>847723.772898674</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1035198.055681709</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1294155.264542296</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1324549.556276275</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1111553.457239292</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1120387.036736172</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1230508.872908038</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1222574.724450655</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1342336.892048564</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1188564.577978705</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1231106.362485879</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1293715.172735263</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2736930.926464174</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2858761.951714825</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3011535.303049393</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3252315.934231292</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3257963.032191709</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3690920.403216068</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3517050.230087009</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3627289.305613224</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3592874.639506299</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3568772.525379847</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3672005.679015872</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3819146.933044299</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2620495.634225346</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2808541.540508174</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2840343.323247754</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3206440.257016204</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3110099.701854998</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3098223.576416861</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3128206.665220957</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3208973.633288029</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3366724.160820046</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3372746.437873715</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3393555.134950001</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3348803.093134909</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>46610291.58111726</v>
-      </c>
-      <c r="C70" t="n">
-        <v>51942096.69651106</v>
-      </c>
-      <c r="D70" t="n">
-        <v>56699938.0200352</v>
-      </c>
-      <c r="E70" t="n">
-        <v>62284561.46590669</v>
-      </c>
-      <c r="F70" t="n">
-        <v>67419535.5889384</v>
-      </c>
-      <c r="G70" t="n">
-        <v>73309668.67643747</v>
-      </c>
-      <c r="H70" t="n">
-        <v>79982390.31964007</v>
-      </c>
-      <c r="I70" t="n">
-        <v>86413932.58755115</v>
-      </c>
-      <c r="J70" t="n">
-        <v>92335744.21396442</v>
-      </c>
-      <c r="K70" t="n">
-        <v>98970603.08798297</v>
-      </c>
-      <c r="L70" t="n">
-        <v>102814017.0118145</v>
-      </c>
-      <c r="M70" t="n">
-        <v>110559362.084988</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>23463310.47553437</v>
-      </c>
-      <c r="C71" t="n">
-        <v>34930569.3725295</v>
-      </c>
-      <c r="D71" t="n">
-        <v>35305211.79249088</v>
-      </c>
-      <c r="E71" t="n">
-        <v>39195395.27711891</v>
-      </c>
-      <c r="F71" t="n">
-        <v>42260676.56204829</v>
-      </c>
-      <c r="G71" t="n">
-        <v>44773788.90515225</v>
-      </c>
-      <c r="H71" t="n">
-        <v>45028989.00513683</v>
-      </c>
-      <c r="I71" t="n">
-        <v>47889493.92018006</v>
-      </c>
-      <c r="J71" t="n">
-        <v>50842976.31522533</v>
-      </c>
-      <c r="K71" t="n">
-        <v>52733928.18358038</v>
-      </c>
-      <c r="L71" t="n">
-        <v>56465113.40600744</v>
-      </c>
-      <c r="M71" t="n">
-        <v>69754705.37545936</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>140131.0336683863</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2468126.732168364</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2996050.735477109</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1349085.434711423</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5746891.425618149</v>
-      </c>
-      <c r="G72" t="n">
-        <v>506576.8202039658</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2377927.731973176</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1396042.317564587</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2852816.116817302</v>
-      </c>
-      <c r="K72" t="n">
-        <v>612110.4186180746</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3346102.68537468</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1338109.044883271</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11170077.01004242</v>
-      </c>
-      <c r="C73" t="n">
-        <v>13507870.75803397</v>
-      </c>
-      <c r="D73" t="n">
-        <v>15182377.50674637</v>
-      </c>
-      <c r="E73" t="n">
-        <v>14019419.80440549</v>
-      </c>
-      <c r="F73" t="n">
-        <v>15019174.87313082</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13572640.80773097</v>
-      </c>
-      <c r="H73" t="n">
-        <v>14032730.38687701</v>
-      </c>
-      <c r="I73" t="n">
-        <v>14022011.15098286</v>
-      </c>
-      <c r="J73" t="n">
-        <v>13835278.30483423</v>
-      </c>
-      <c r="K73" t="n">
-        <v>14722209.49558983</v>
-      </c>
-      <c r="L73" t="n">
-        <v>13527973.91589221</v>
-      </c>
-      <c r="M73" t="n">
-        <v>14308794.80184513</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>12798102.43832532</v>
-      </c>
-      <c r="C74" t="n">
-        <v>19384262.42759748</v>
-      </c>
-      <c r="D74" t="n">
-        <v>21604617.05646618</v>
-      </c>
-      <c r="E74" t="n">
-        <v>21218717.97783471</v>
-      </c>
-      <c r="F74" t="n">
-        <v>19614065.40369461</v>
-      </c>
-      <c r="G74" t="n">
-        <v>19612867.56014565</v>
-      </c>
-      <c r="H74" t="n">
-        <v>19395315.99557797</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16541715.89629573</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19283798.06574597</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19280786.22196649</v>
-      </c>
-      <c r="L74" t="n">
-        <v>21013150.16935523</v>
-      </c>
-      <c r="M74" t="n">
-        <v>26713632.16972839</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>28206236.05184703</v>
-      </c>
-      <c r="C75" t="n">
-        <v>29843320.37144305</v>
-      </c>
-      <c r="D75" t="n">
-        <v>33287765.44632775</v>
-      </c>
-      <c r="E75" t="n">
-        <v>34385567.95140015</v>
-      </c>
-      <c r="F75" t="n">
-        <v>33546775.41123501</v>
-      </c>
-      <c r="G75" t="n">
-        <v>34648231.92266405</v>
-      </c>
-      <c r="H75" t="n">
-        <v>33536860.78141136</v>
-      </c>
-      <c r="I75" t="n">
-        <v>34702245.60398746</v>
-      </c>
-      <c r="J75" t="n">
-        <v>33643314.25303595</v>
-      </c>
-      <c r="K75" t="n">
-        <v>33942831.26720805</v>
-      </c>
-      <c r="L75" t="n">
-        <v>34471287.27275503</v>
-      </c>
-      <c r="M75" t="n">
-        <v>43186881.76776189</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>19322037.26769894</v>
-      </c>
-      <c r="C76" t="n">
-        <v>19534153.79420695</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21109850.60605968</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22985182.79674095</v>
-      </c>
-      <c r="F76" t="n">
-        <v>24266456.65859993</v>
-      </c>
-      <c r="G76" t="n">
-        <v>24517951.86685034</v>
-      </c>
-      <c r="H76" t="n">
-        <v>24670439.20185628</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25056314.2200139</v>
-      </c>
-      <c r="J76" t="n">
-        <v>25614511.80816821</v>
-      </c>
-      <c r="K76" t="n">
-        <v>26252260.60040464</v>
-      </c>
-      <c r="L76" t="n">
-        <v>26468295.20818331</v>
-      </c>
-      <c r="M76" t="n">
-        <v>27184236.40462314</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>22088980.79806066</v>
-      </c>
-      <c r="C77" t="n">
-        <v>23586700.67324356</v>
-      </c>
-      <c r="D77" t="n">
-        <v>24232979.40836321</v>
-      </c>
-      <c r="E77" t="n">
-        <v>25429224.15314933</v>
-      </c>
-      <c r="F77" t="n">
-        <v>26068070.2105375</v>
-      </c>
-      <c r="G77" t="n">
-        <v>28389818.19194825</v>
-      </c>
-      <c r="H77" t="n">
-        <v>28773102.08156126</v>
-      </c>
-      <c r="I77" t="n">
-        <v>29825535.42032446</v>
-      </c>
-      <c r="J77" t="n">
-        <v>31577582.06971127</v>
-      </c>
-      <c r="K77" t="n">
-        <v>33555843.43171503</v>
-      </c>
-      <c r="L77" t="n">
-        <v>34492087.51319225</v>
-      </c>
-      <c r="M77" t="n">
-        <v>33943454.94550531</v>
+        <v>3646685.476379769</v>
       </c>
     </row>
   </sheetData>
